--- a/data/trans_orig/IP16B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B561E074-AEFE-439D-A0D9-2FFBE9DDBCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9DDFF2-B3C4-4FCC-A2A4-23A4491FB02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CB594EA8-7932-48DC-A092-6C46EA8AE403}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D9D6984C-E605-448A-BC5B-6A98DE2C7929}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -74,19 +74,19 @@
     <t>—%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD10B978-D339-4039-ACAA-67BE2EBC4B60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAA0D3-028B-43C0-AF40-60EE230880BA}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -701,30 +701,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>656</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>656</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -746,35 +750,39 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>656</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>656</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -793,34 +801,30 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -842,34 +846,30 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -899,13 +899,13 @@
         <v>656</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -914,13 +914,13 @@
         <v>656</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -948,13 +948,13 @@
         <v>656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -963,13 +963,13 @@
         <v>656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9DDFF2-B3C4-4FCC-A2A4-23A4491FB02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22FEB4B7-A09D-4300-B796-6A847F5FD9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D9D6984C-E605-448A-BC5B-6A98DE2C7929}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6D23D5A-4904-4179-BEB0-88FED7890A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="19">
   <si>
     <t>Menores según si ha consumido pastillas para dormir recetados por el médico en 2012 (Tasa respuesta: 0,05%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,7 +74,7 @@
     <t>—%</t>
   </si>
   <si>
-    <t>5/9</t>
+    <t>3-7</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,7 +86,13 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/15</t>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -97,7 +103,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -193,39 +199,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -277,7 +283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,13 +394,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -403,6 +402,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -467,19 +473,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAA0D3-028B-43C0-AF40-60EE230880BA}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301F7A45-FEB3-4F1B-9828-372F8E02AABE}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -874,7 +900,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -893,34 +919,30 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,40 +964,142 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>656</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="7">
         <v>1</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>656</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>15</v>
+      <c r="O12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>656</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>656</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B07-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22FEB4B7-A09D-4300-B796-6A847F5FD9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A07BA4-12E0-4797-9749-06FDD8A520C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A6D23D5A-4904-4179-BEB0-88FED7890A1F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14C50981-065B-4F5D-91BA-8B2CA4CB321E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301F7A45-FEB3-4F1B-9828-372F8E02AABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8337605-5585-4CC0-BE73-B70F4A5050D6}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP16B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A07BA4-12E0-4797-9749-06FDD8A520C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{118528C5-B6E7-4649-B3B4-0FFC332F5350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{14C50981-065B-4F5D-91BA-8B2CA4CB321E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B1722362-F66C-4A9A-8E0D-A29A52239AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si ha consumido pastillas para dormir recetados por el médico en 2012 (Tasa respuesta: 0,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8337605-5585-4CC0-BE73-B70F4A5050D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572DB57E-043D-4BBA-8FF9-E79E078AC09B}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -714,32 +714,32 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>656</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -763,32 +763,32 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>656</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -998,32 +998,32 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>656</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -1047,32 +1047,32 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>656</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>656</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
